--- a/data/question_test2.xlsx
+++ b/data/question_test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\database_yasuda\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\souzoukougaku_hikiage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4DBC35-F4B4-4695-A795-88AA6D9E0624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F4F541-9A77-4B50-9F87-857E95708571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
+    <workbookView xWindow="5315" yWindow="1479" windowWidth="18851" windowHeight="9766" xr2:uid="{CD6E080B-B036-4DCC-A8EF-F7EF12700BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>始まり</t>
     <rPh sb="0" eb="1">
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>昼ごはんは何を食べていましたか？</t>
-  </si>
-  <si>
-    <t>昼食でどのくらいの量を食べられましたか？</t>
   </si>
   <si>
     <t>だから、入った年には、みんな栄養失調になっていた。そのうえで、伐採という重労働、重労働と栄養失調、それが重なったからもう次から次に倒れていくと。だから毎日、今さっきも言う2人から3人ほどが死んでいった。全部でどれくらい死んでいるかはもうちょっと分からないんですけどね、そういう連絡がない場合に。私の班の中でも2人ほどが死んでいました、10人おってね。</t>
@@ -740,6 +737,17 @@
       </rPr>
       <t>やけど、できんかったらもうしゃあない。できなんだらどうなるか言うたら、出来なんだら、めしやらんとか減らすとか、そんなことを言っていじめたりなんかしてたけど</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんな仕事をしていましたか</t>
+    <rPh sb="3" eb="5">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼食でどのくらいの量を食べられましたか？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1229,13 +1237,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8DA52E-38E4-4B7B-B163-9F83F8FEC0C7}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1255,10 +1263,10 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>962</v>
       </c>
@@ -1269,17 +1277,17 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>980</v>
       </c>
@@ -1287,20 +1295,20 @@
         <v>993</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>994</v>
       </c>
@@ -1311,17 +1319,17 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1024</v>
       </c>
@@ -1329,20 +1337,20 @@
         <v>1042</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1041</v>
       </c>
@@ -1353,19 +1361,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1061</v>
       </c>
@@ -1376,17 +1384,17 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1071</v>
       </c>
@@ -1397,15 +1405,15 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1080</v>
       </c>
@@ -1413,20 +1421,20 @@
         <v>1100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1099</v>
       </c>
@@ -1434,22 +1442,22 @@
         <v>1116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="G10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1115</v>
       </c>
@@ -1457,20 +1465,20 @@
         <v>1138</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1144</v>
       </c>
@@ -1478,22 +1486,22 @@
         <v>1164</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1170</v>
       </c>
@@ -1501,20 +1509,20 @@
         <v>1191</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1190</v>
       </c>
@@ -1525,19 +1533,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1206</v>
       </c>
@@ -1545,20 +1553,20 @@
         <v>1223</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1222</v>
       </c>
@@ -1566,22 +1574,22 @@
         <v>1253</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1256</v>
       </c>
@@ -1592,17 +1600,17 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.350000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>1267</v>
       </c>
@@ -1610,16 +1618,16 @@
         <v>1286</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>275</v>
       </c>
@@ -1635,10 +1643,10 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>295</v>
       </c>
@@ -1649,19 +1657,19 @@
         <v>16</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>333</v>
       </c>
@@ -1679,10 +1687,10 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>420</v>
       </c>
@@ -1693,17 +1701,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>457</v>
       </c>
@@ -1716,15 +1724,15 @@
       <c r="D23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>25</v>
+      <c r="E23" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>484</v>
       </c>
@@ -1732,22 +1740,22 @@
         <v>508</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F24" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>543</v>
       </c>
@@ -1755,20 +1763,20 @@
         <v>561</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>591</v>
       </c>
@@ -1776,20 +1784,22 @@
         <v>611</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E26" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="G26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>726</v>
       </c>
@@ -1797,22 +1807,22 @@
         <v>750</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>752</v>
       </c>
@@ -1820,20 +1830,20 @@
         <v>770</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>772</v>
       </c>
@@ -1841,22 +1851,22 @@
         <v>803</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="G29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>803</v>
       </c>
@@ -1864,20 +1874,20 @@
         <v>812</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>812</v>
       </c>
@@ -1885,20 +1895,20 @@
         <v>844</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E31" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>994</v>
       </c>
@@ -1909,15 +1919,15 @@
         <v>4</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1115</v>
       </c>
@@ -1928,15 +1938,15 @@
         <v>8</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1256</v>
       </c>
@@ -1947,14 +1957,14 @@
         <v>10</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
